--- a/plan-idea-code.xlsx
+++ b/plan-idea-code.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NHUTPHAM-GIT-D\rag-fastapi-chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5791B9D-6699-412A-AE0F-14CCAC0E2A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC597FB5-51EB-4346-8BF4-F2AE14715A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22440" yWindow="1560" windowWidth="21600" windowHeight="13710" xr2:uid="{B52D5B59-AAB8-4AE5-A5D1-C660E9447ACB}"/>
   </bookViews>
@@ -307,7 +307,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,6 +332,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -345,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -361,6 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74672F67-7C31-4D39-961B-1A46855CECD6}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,7 +694,7 @@
     <col min="4" max="4" width="114" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -698,12 +705,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -711,17 +718,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -729,37 +736,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -767,7 +780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>11</v>
       </c>
